--- a/src/main/resources/jxl/template/RECIEVE_INF_EXPORT.xlsx
+++ b/src/main/resources/jxl/template/RECIEVE_INF_EXPORT.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinku/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinku/Documents/hh_project/bd-core/src/main/resources/jxl/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0866AAAA-BA13-0D45-B6BF-E5B972E41E45}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A652990-9A11-894F-B742-168C25A37AEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5320" yWindow="1120" windowWidth="28240" windowHeight="16080" xr2:uid="{A4E9D718-F285-FF43-94F3-96F792DCA664}"/>
+    <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{A4E9D718-F285-FF43-94F3-96F792DCA664}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -46,40 +46,13 @@
             <sz val="10"/>
             <color rgb="FF000000"/>
             <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
           </rPr>
-          <t>jx:area(lastCell="</t>
+          <t>jx:area(lastCell="c2")</t>
         </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>c2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="Microsoft YaHei UI"/>
-            <charset val="1"/>
-          </rPr>
-          <t>")</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="4"/>
-            <charset val="134"/>
-            <scheme val="minor"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
+      </text>
+    </comment>
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{27F45266-6C8A-744D-887A-FA0BC682A721}">
+      <text>
         <r>
           <rPr>
             <sz val="10"/>
@@ -117,9 +90,8 @@
             <sz val="10"/>
             <color rgb="FF6A8759"/>
             <rFont val="等线"/>
-            <family val="4"/>
+            <family val="2"/>
             <charset val="134"/>
-            <scheme val="minor"/>
           </rPr>
           <t>usList</t>
         </r>
@@ -131,47 +103,7 @@
             <family val="2"/>
             <charset val="134"/>
           </rPr>
-          <t>" var="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>s</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>" lastCell="</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>c2</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="10"/>
-            <color rgb="FF000000"/>
-            <rFont val="等线"/>
-            <family val="2"/>
-            <charset val="134"/>
-          </rPr>
-          <t>")</t>
+          <t>" var="s" lastCell="c2")</t>
         </r>
       </text>
     </comment>
@@ -211,7 +143,7 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${recieverPhone}</t>
+    <t>${s.recieverPhone}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -219,7 +151,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="8">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -252,12 +184,6 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
-      <name val="Microsoft YaHei UI"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF000000"/>
       <name val="等线"/>
       <family val="4"/>
       <charset val="134"/>
@@ -274,9 +200,8 @@
       <sz val="10"/>
       <color rgb="FF6A8759"/>
       <name val="等线"/>
-      <family val="4"/>
+      <family val="2"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -655,7 +580,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>

--- a/src/main/resources/jxl/template/RECIEVE_INF_EXPORT.xlsx
+++ b/src/main/resources/jxl/template/RECIEVE_INF_EXPORT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lijinku/Documents/hh_project/bd-core/src/main/resources/jxl/template/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{0A652990-9A11-894F-B742-168C25A37AEA}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{16340D6F-F537-4948-B81E-E5C4F2A56E42}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="560" yWindow="460" windowWidth="28240" windowHeight="16080" xr2:uid="{A4E9D718-F285-FF43-94F3-96F792DCA664}"/>
   </bookViews>
@@ -135,15 +135,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${s.recieveName}</t>
+    <t>${s.recieverPhone}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${s.address}</t>
+    <t>${s.recieverName}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>${s.recieverPhone}</t>
+    <t>${s.recieverAddress}</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -580,7 +580,7 @@
   <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
@@ -603,13 +603,13 @@
     </row>
     <row r="2" spans="1:3">
       <c r="A2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="C2" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
     </row>
   </sheetData>
